--- a/first_lab.xlsx
+++ b/first_lab.xlsx
@@ -874,7 +874,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P20"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,6 +882,7 @@
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
     <col min="18" max="18" width="32" customWidth="1"/>
   </cols>
   <sheetData>

--- a/first_lab.xlsx
+++ b/first_lab.xlsx
@@ -874,7 +874,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="P20" sqref="B2:P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +984,7 @@
         <v>14</v>
       </c>
       <c r="P2" s="18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="16"/>
     </row>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="T14" t="s">
         <v>91</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="T15" t="s">
         <v>95</v>

--- a/first_lab.xlsx
+++ b/first_lab.xlsx
@@ -874,7 +874,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="B2:P20"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/first_lab.xlsx
+++ b/first_lab.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="126">
   <si>
     <t>F</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, space ;  () {} [ ] </t>
   </si>
   <si>
     <t>8,P6</t>
@@ -445,6 +442,30 @@
   </si>
   <si>
     <t>11,P7</t>
+  </si>
+  <si>
+    <t>) ]</t>
+  </si>
+  <si>
+    <t>19,P2</t>
+  </si>
+  <si>
+    <t>19,P3</t>
+  </si>
+  <si>
+    <t>19,P5</t>
+  </si>
+  <si>
+    <t>19,P7</t>
+  </si>
+  <si>
+    <t>19,P4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, ;  () {} [ ] </t>
+  </si>
+  <si>
+    <t>) ] space</t>
   </si>
 </sst>
 </file>
@@ -874,7 +895,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
@@ -918,7 +939,7 @@
         <v>21</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="M1" t="s">
         <v>23</v>
@@ -930,9 +951,11 @@
         <v>46</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q1" s="15"/>
+        <v>108</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="S1" t="s">
         <v>25</v>
       </c>
@@ -986,7 +1009,9 @@
       <c r="P2" s="18">
         <v>3</v>
       </c>
-      <c r="Q2" s="16"/>
+      <c r="Q2" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -999,19 +1024,19 @@
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>72</v>
-      </c>
       <c r="G3" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -1020,26 +1045,28 @@
         <v>0</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" s="16"/>
+        <v>73</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="T3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1053,19 +1080,19 @@
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>72</v>
-      </c>
       <c r="G4" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="16">
         <v>2</v>
@@ -1074,26 +1101,28 @@
         <v>0</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" s="16"/>
+        <v>73</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="T4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1110,16 +1139,16 @@
         <v>4</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" s="18">
         <v>17</v>
@@ -1128,22 +1157,25 @@
         <v>0</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P5" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1157,19 +1189,19 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" s="18">
         <v>18</v>
@@ -1178,22 +1210,25 @@
         <v>0</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1210,16 +1245,16 @@
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>0</v>
@@ -1228,22 +1263,25 @@
         <v>0</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1260,16 +1298,16 @@
         <v>0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>0</v>
@@ -1278,22 +1316,25 @@
         <v>0</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1307,7 +1348,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>0</v>
@@ -1316,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>36</v>
@@ -1344,6 +1385,9 @@
       </c>
       <c r="P9" s="10" t="s">
         <v>37</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1357,7 +1401,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>0</v>
@@ -1395,9 +1439,12 @@
       <c r="P10" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="Q10" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1435,7 +1482,7 @@
         <v>9</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>0</v>
@@ -1449,8 +1496,11 @@
       <c r="P11" s="1">
         <v>9</v>
       </c>
+      <c r="Q11" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="T11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1502,8 +1552,11 @@
       <c r="P12" s="1">
         <v>10</v>
       </c>
+      <c r="Q12" s="1">
+        <v>10</v>
+      </c>
       <c r="T12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1514,31 +1567,31 @@
         <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="H13" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>1</v>
@@ -1550,18 +1603,21 @@
         <v>1</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>85</v>
+        <v>49</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>36</v>
@@ -1570,19 +1626,19 @@
         <v>37</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H14" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>36</v>
@@ -1608,13 +1664,16 @@
       <c r="P14" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="Q14" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="T14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -1623,7 +1682,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>0</v>
@@ -1632,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>36</v>
@@ -1661,22 +1720,25 @@
       <c r="P15" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="Q15" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="T15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>0</v>
@@ -1688,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>42</v>
@@ -1700,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>1</v>
@@ -1714,13 +1776,16 @@
       <c r="P16" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="Q16" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="T16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>0</v>
@@ -1767,19 +1832,22 @@
       <c r="P17" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>0</v>
@@ -1791,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>0</v>
@@ -1817,10 +1885,13 @@
       <c r="P18" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q18" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>0</v>
@@ -1865,12 +1936,15 @@
         <v>0</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>0</v>
@@ -1915,168 +1989,178 @@
         <v>0</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O21">
-        <v>8</v>
-      </c>
-      <c r="P21" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="Q21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="T21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F22" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="O22">
-        <v>8</v>
-      </c>
-      <c r="P22" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="O23">
-        <v>8</v>
-      </c>
-      <c r="P23" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O24">
-        <v>8</v>
-      </c>
-      <c r="P24" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E25" s="4"/>
       <c r="G25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" t="s">
         <v>63</v>
       </c>
-      <c r="O25">
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>64</v>
+      </c>
+      <c r="R27">
         <v>8</v>
       </c>
-      <c r="P25" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" t="s">
-        <v>64</v>
-      </c>
-      <c r="O26">
+      <c r="S27" t="s">
+        <v>111</v>
+      </c>
+      <c r="T27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>65</v>
+      </c>
+      <c r="R28">
         <v>8</v>
       </c>
-      <c r="P26" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" t="s">
-        <v>65</v>
-      </c>
-      <c r="O27">
-        <v>8</v>
-      </c>
-      <c r="P27" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O28">
-        <v>8</v>
-      </c>
-      <c r="P28" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S28" t="s">
+        <v>111</v>
+      </c>
+      <c r="T28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="G29" t="s">
+        <v>66</v>
+      </c>
+      <c r="R29">
+        <v>8</v>
+      </c>
+      <c r="S29" t="s">
+        <v>111</v>
+      </c>
+      <c r="T29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
         <v>67</v>
       </c>
-      <c r="O29">
-        <v>5</v>
-      </c>
-      <c r="P29" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G30" t="s">
+      <c r="R30">
+        <v>8</v>
+      </c>
+      <c r="S30" t="s">
+        <v>111</v>
+      </c>
+      <c r="T30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
         <v>68</v>
       </c>
-      <c r="O30">
-        <v>5</v>
-      </c>
-      <c r="P30" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <v>8</v>
+      </c>
+      <c r="S31" t="s">
+        <v>111</v>
+      </c>
+      <c r="T31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -2086,8 +2170,17 @@
       <c r="N32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <v>8</v>
+      </c>
+      <c r="S32" t="s">
+        <v>111</v>
+      </c>
+      <c r="T32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -2103,8 +2196,17 @@
       <c r="P33" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <v>8</v>
+      </c>
+      <c r="S33" t="s">
+        <v>111</v>
+      </c>
+      <c r="T33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -2114,16 +2216,34 @@
       <c r="N34" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <v>8</v>
+      </c>
+      <c r="S34" t="s">
+        <v>111</v>
+      </c>
+      <c r="T34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2133,8 +2253,17 @@
       <c r="N36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s">
+        <v>19</v>
+      </c>
+      <c r="T36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -2142,12 +2271,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
